--- a/data/Subset1_WithDialogActs/Video Mosaic Grade 4 Intro Fraction Comparison 2.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Video Mosaic Grade 4 Intro Fraction Comparison 2.xlsx_with_dialog_acts.xlsx
@@ -1039,12 +1039,12 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
